--- a/src/test/resources/testdata/api/reqres/reqResUsers.xlsx
+++ b/src/test/resources/testdata/api/reqres/reqResUsers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pr\anna_romanyshyn_framework_m\src\test\resources\testdata\api\reqres\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,15 +57,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,12 +79,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,20 +386,24 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -393,5 +421,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>